--- a/Табель за Август - г.Астана.xlsx
+++ b/Табель за Август - г.Астана.xlsx
@@ -788,7 +788,7 @@
       <c r="AA3" s="3" t="inlineStr"/>
       <c r="AB3" s="3" t="inlineStr">
         <is>
-          <t>01:57</t>
+          <t>12:14</t>
         </is>
       </c>
       <c r="AC3" s="3" t="inlineStr"/>
@@ -799,7 +799,7 @@
       <c r="AH3" s="3" t="inlineStr"/>
       <c r="AI3" s="3" t="inlineStr">
         <is>
-          <t>00:19</t>
+          <t>00:00</t>
         </is>
       </c>
     </row>
@@ -835,11 +835,7 @@
       <c r="Y4" s="3" t="inlineStr"/>
       <c r="Z4" s="3" t="inlineStr"/>
       <c r="AA4" s="3" t="inlineStr"/>
-      <c r="AB4" s="3" t="inlineStr">
-        <is>
-          <t>02:16</t>
-        </is>
-      </c>
+      <c r="AB4" s="3" t="inlineStr"/>
       <c r="AC4" s="3" t="inlineStr"/>
       <c r="AD4" s="3" t="inlineStr"/>
       <c r="AE4" s="3" t="inlineStr"/>
@@ -978,7 +974,7 @@
       </c>
       <c r="AB5" s="3" t="inlineStr">
         <is>
-          <t>00:19</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" s="3" t="inlineStr">
